--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_cca.cluster.0.5_gene_ranking.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_cca.cluster.0.5_gene_ranking.xlsx
@@ -2151,12 +2151,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Cybb</t>
+          <t>Jdp2</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Nckap5</t>
+          <t>Chdh</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Jdp2</t>
+          <t>Cybb</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Chdh</t>
+          <t>Nckap5</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>D16Ertd472e</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Odc1</t>
+          <t>D16Ertd472e</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Grn</t>
+          <t>Gm10851</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Gm10851</t>
+          <t>Grn</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Top2a</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Nfkbiz</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Top2a</t>
+          <t>Cacna1e</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cacna1e</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Ikzf2</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>B4galt6</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>B4galt6</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Slc24a1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Slc24a1</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Serpinb9</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -6921,12 +6921,12 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Foxo1</t>
+          <t>Srgap3</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>Mmp12</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Tox</t>
+          <t>Sorbs1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Srgap3</t>
+          <t>Mmp11</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>Zc3h12c</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -7066,64 +7066,64 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>Tox</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Cybb</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Dab2</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Diaph3</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Csf2rb</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Gjb2</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Plet1</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Cacna1e</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Lair1</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Zc3h12c</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Ipmk</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
           <t>Sorbs1</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Cybb</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Dab2</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Diaph3</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Csf2rb</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Gjb2</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Plet1</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Cacna1e</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>Lair1</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Zc3h12c</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Ipmk</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>Sorbs1</t>
-        </is>
-      </c>
       <c r="Q64" t="inlineStr">
         <is>
           <t>Ctla4</t>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Mmp11</t>
+          <t>Foxo1</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mmp11</t>
+          <t>Grn</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Jdp2</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>Themis</t>
+          <t>Foxo1</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Grn</t>
+          <t>Mmp11</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Jdp2</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>Foxo1</t>
+          <t>Themis</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>Ccr7</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Mctp2</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>Mctp2</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Ky</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>Ky</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>Serpinb1a</t>
+          <t>Ptpn13</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
@@ -8471,14 +8471,14 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>Nabp1</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
           <t>Ikzf3</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Ikzf3</t>
-        </is>
-      </c>
       <c r="O77" t="inlineStr">
         <is>
           <t>Lair1</t>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>Ptpn13</t>
+          <t>Ugcg</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
@@ -8606,7 +8606,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>Ugcg</t>
+          <t>Ky</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>Ky</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Gata3</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Gata3</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
@@ -8836,12 +8836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Irak2</t>
+          <t>Olfr164</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cyp26b1</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -8851,7 +8851,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Gata3</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>Gata3</t>
+          <t>Serpinb1a</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
@@ -8941,12 +8941,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Olfr164</t>
+          <t>Irak2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ifi207</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Pltp</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>Pltp</t>
+          <t>Cxcl16</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>Cxcl16</t>
+          <t>Cd200r1</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Eps8</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>Cd200r1</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Myo1e</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Nfkbiz</t>
+          <t>Eps8</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Csf2rb2</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -9666,7 +9666,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Fancc</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>Fancc</t>
+          <t>Il1b</t>
         </is>
       </c>
     </row>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Mrc1</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>Jdp2</t>
+          <t>Ipmk</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
@@ -10181,7 +10181,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>Ipmk</t>
+          <t>Jdp2</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
@@ -10386,7 +10386,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Ptgs2</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Cyp26b1</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -10586,7 +10586,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Stxbp6</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Tnip3</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Stxbp6</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Stxbp6</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -10806,12 +10806,12 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Diaph3</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>Plbd1</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Stxbp6</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>Cadm1</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">

--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_cca.cluster.0.5_gene_ranking.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_cca.cluster.0.5_gene_ranking.xlsx
@@ -8746,7 +8746,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Gata3</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -8851,7 +8851,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Gata3</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Clnk</t>
+          <t>Malat1</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Clnk</t>
         </is>
       </c>
     </row>
